--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Network_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Network_JS.xlsx
@@ -90,10 +90,6 @@
 validate5;</t>
   </si>
   <si>
-    <t>Objective:
-startStatusNotify with Synch</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Manual specs
@@ -411,6 +407,85 @@
 validate3;</t>
   </si>
   <si>
+    <t>Objective:
+detectConnection with wlan profile disabled</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network_test_link);
+validate2;
+SelectTestToRun(VT293_0017_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0017
+};
+validate4
+{
+validate_Result=Disconnected
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network_test_link);
+validate2;
+SelectTestToRun(VT293_0005_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wifi_Mode(OFF);
+press_Key(Back);
+validate3;
+validate4;
+wait(2);
+wifi_Mode(ON);
+wait(5);
+press_Key(Back);
+validate3;
+validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0005
+};
+validate4
+{
+validate_Result=disconnected
+};
+validate5
+{
+validate_Result_notDisplayed=to connected
+};</t>
+  </si>
+  <si>
+    <t>Objective:
+startStatusNotify with Synch</t>
+  </si>
+  <si>
     <t>wait(3);
 validate1;
 link_Click(network_test_link);
@@ -419,64 +494,15 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT293_0003);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0003
-};
-validate4
-{
-validate_Screenshot=VT293_0003
-};</t>
-  </si>
-  <si>
-    <t>Objective:
-detectConnection with wlan profile disabled</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network_test_link);
-validate2;
-SelectTestToRun(VT293_0005_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
 wifi_Mode(OFF);
 press_Key(Back);
 validate3;
+validate4;
 wifi_Mode(ON);
-wait(5);
+wait(2);
 press_Key(Back);
 validate3;
-TakeScreenshot(VT293_0005);
-validate4;
-wifi_Mode(OFF);
-press_Key(Back);
-validate3;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network_test_link);
-validate2;
-SelectTestToRun(VT293_0017_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
+validate5;</t>
   </si>
   <si>
     <t>validate1
@@ -489,11 +515,15 @@
 };
 validate3
 {
-validate_Text_Exists=VT293-0017
+validate_Text_Exists=VT293-0003
 };
 validate4
 {
-validate_Result=Disconnected
+validate_Result_notDisplayed=disconnected
+};
+validate5
+{
+validate_Result=Will fail
 };</t>
   </si>
   <si>
@@ -503,24 +533,6 @@
 ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
 PushConfigxml;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0005
-};
-validate4
-{
-validate_Screenshot=VT293_0005
-};</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="2" t="s">
@@ -1086,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="180.75" thickBot="1">
+    <row r="4" spans="1:11" ht="225.75" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1104,16 +1116,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1131,16 +1143,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1158,16 +1170,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1185,16 +1197,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1212,16 +1224,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1239,16 +1251,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1266,16 +1278,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1293,16 +1305,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1320,16 +1332,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1353,10 +1365,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1374,16 +1386,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Network_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Network_JS.xlsx
@@ -71,6 +71,320 @@
     <t>Change Start page</t>
   </si>
   <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0002
+};
+validate4
+{
+validate_Result=disconnected
+};
+validate5
+{
+validate_Result=connected
+};</t>
+  </si>
+  <si>
+    <t>Objective:
+startStatusNotify with Anonymous Callback</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0004
+};
+validate4
+{
+validate_Result=disconnected
+};
+validate5
+{
+validate_Result=connected
+};</t>
+  </si>
+  <si>
+    <t>Objective:
+stopStatusNotify</t>
+  </si>
+  <si>
+    <t>Objective:
+hasCellNetwork without CellNetowrk</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0024
+};
+validate4
+{
+validate_Result=false
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0025
+};
+validate4
+{
+validate_Result=false
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(network_test_link);
+validate2;
+SelectTestToRun(VT293_0024_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>Objective:
+hasCellNetwork with wifi netowrk</t>
+  </si>
+  <si>
+    <t>Objective:
+hasNetwork with wifi</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0027
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>Objective:
+hasNetwork with both cell and wifi</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0028
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>Objective:
+hasNetwork without both cell and wifi</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0029
+};
+validate4
+{
+validate_Result=false
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0030
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>Objective:
+hasWifiNetwork with Cell network</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0031
+};
+validate4
+{
+validate_Result=false
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network_test_link);
+validate2;
+SelectTestToRun(VT293_0025_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network_test_link);
+validate2;
+SelectTestToRun(VT293_0027_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>Objective:
+detectConnection with wlan profile disabled</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0017
+};
+validate4
+{
+validate_Result=Disconnected
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0005
+};
+validate4
+{
+validate_Result=disconnected
+};
+validate5
+{
+validate_Result_notDisplayed=to connected
+};</t>
+  </si>
+  <si>
+    <t>Objective:
+startStatusNotify with Synch</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT293-0003
+};
+validate4
+{
+validate_Result_notDisplayed=disconnected
+};
+validate5
+{
+validate_Result=Will fail
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+PushConfigxml;</t>
+  </si>
+  <si>
     <t>wait(3);
 validate1;
 link_Click(network_test_link);
@@ -80,40 +394,37 @@
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wifi_Mode(OFF);
-press_Key(Back);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate3;
 validate4;
 wifi_Mode(ON);
 wait(5);
-press_Key(Back);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate3;
 validate5;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0002
-};
-validate4
-{
-validate_Result=disconnected
-};
-validate5
-{
-validate_Result=connected
-};</t>
-  </si>
-  <si>
-    <t>Objective:
-startStatusNotify with Anonymous Callback</t>
+    <t>wait(3);
+validate1;
+link_Click(network_test_link);
+validate2;
+SelectTestToRun(VT293_0003_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wifi_Mode(OFF);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate3;
+validate4;
+wifi_Mode(ON);
+wait(2);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate3;
+validate5;</t>
   </si>
   <si>
     <t>wait(3);
@@ -125,162 +436,72 @@
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wifi_Mode(OFF);
-press_Key(Back);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate3;
 validate4;
 wifi_Mode(ON);
 wait(5);
-press_Key(Back);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate3;
 validate5;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0004
-};
-validate4
-{
-validate_Result=disconnected
-};
-validate5
-{
-validate_Result=connected
-};</t>
-  </si>
-  <si>
-    <t>Objective:
-stopStatusNotify</t>
-  </si>
-  <si>
-    <t>Objective:
-hasCellNetwork without CellNetowrk</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0024
-};
-validate4
-{
-validate_Result=false
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0025
-};
-validate4
-{
-validate_Result=false
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
+    <t>wait(3);
 validate1;
 link_Click(network_test_link);
 validate2;
-SelectTestToRun(VT293_0024_string);
+SelectTestToRun(VT293_0005_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
+ClickRunTest(runtest_bottom_xpath);
+wifi_Mode(OFF);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate3;
+validate4;
+wait(2);
+wifi_Mode(ON);
+wait(5);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate3;
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network_test_link);
+validate2;
+SelectTestToRun(VT293_0017_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+wifi_Mode(OFF);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 ClickRunTest(runtest_bottom_xpath);
 validate4;
-</t>
-  </si>
-  <si>
-    <t>Objective:
-hasCellNetwork with wifi netowrk</t>
-  </si>
-  <si>
-    <t>Objective:
-hasNetwork with wifi</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0027
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>Objective:
-hasNetwork with both cell and wifi</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0028
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>Objective:
-hasNetwork without both cell and wifi</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0029
-};
-validate4
-{
-validate_Result=false
-};</t>
+wifi_Mode(ON);
+wait(5);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(network_test_link);
+validate2;
+SelectTestToRun(VT293_0028_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;
+wifi_Mode(OFF);
+wait(5);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate3;</t>
   </si>
   <si>
     <t>wait(3);
@@ -294,84 +515,8 @@
 validate4;
 wifi_Mode(ON);
 wait(5);
-press_Key(Back);
-validate3;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0030
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>Objective:
-hasWifiNetwork with Cell network</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0031
-};
-validate4
-{
-validate_Result=false
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network_test_link);
-validate2;
-SelectTestToRun(VT293_0025_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network_test_link);
-validate2;
-SelectTestToRun(VT293_0027_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network_test_link);
-validate2;
-SelectTestToRun(VT293_0028_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;
-wifi_Mode(OFF);
-wait(5);
-press_Key(Back);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate3;</t>
   </si>
   <si>
@@ -386,7 +531,8 @@
 validate4;
 wifi_Mode(OFF);
 wait(5);
-press_Key(Back);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 wait(5);
 validate3;</t>
   </si>
@@ -402,137 +548,10 @@
 validate4;
 wifi_Mode(ON);
 wait(5);
-press_Key(Back);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 wait(5);
 validate3;</t>
-  </si>
-  <si>
-    <t>Objective:
-detectConnection with wlan profile disabled</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network_test_link);
-validate2;
-SelectTestToRun(VT293_0017_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0017
-};
-validate4
-{
-validate_Result=Disconnected
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network_test_link);
-validate2;
-SelectTestToRun(VT293_0005_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wifi_Mode(OFF);
-press_Key(Back);
-validate3;
-validate4;
-wait(2);
-wifi_Mode(ON);
-wait(5);
-press_Key(Back);
-validate3;
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0005
-};
-validate4
-{
-validate_Result=disconnected
-};
-validate5
-{
-validate_Result_notDisplayed=to connected
-};</t>
-  </si>
-  <si>
-    <t>Objective:
-startStatusNotify with Synch</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(network_test_link);
-validate2;
-SelectTestToRun(VT293_0003_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wifi_Mode(OFF);
-press_Key(Back);
-validate3;
-validate4;
-wifi_Mode(ON);
-wait(2);
-press_Key(Back);
-validate3;
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Network JS Test
-};
-validate3
-{
-validate_Text_Exists=VT293-0003
-};
-validate4
-{
-validate_Result_notDisplayed=disconnected
-};
-validate5
-{
-validate_Result=Will fail
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
-PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="2" t="s">
@@ -1077,7 +1096,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="225.75" thickBot="1">
+    <row r="3" spans="1:11" ht="259.5" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1095,16 +1114,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="225.75" thickBot="1">
+    <row r="4" spans="1:11" ht="259.5" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1116,22 +1135,22 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="225.75" thickBot="1">
+    <row r="5" spans="1:11" ht="259.5" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1143,22 +1162,22 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="225.75" thickBot="1">
+    <row r="6" spans="1:11" ht="270.75" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1170,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1179,13 +1198,13 @@
         <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="180.75" thickBot="1">
+    <row r="7" spans="1:11" ht="225.75" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1197,16 +1216,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1224,16 +1243,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1251,16 +1270,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1278,16 +1297,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1305,16 +1324,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1332,22 +1351,22 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="180.75" thickBot="1">
+    <row r="13" spans="1:11" ht="192" thickBot="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1365,16 +1384,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="180.75" thickBot="1">
+    <row r="14" spans="1:11" ht="192" thickBot="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1386,16 +1405,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
